--- a/doc/milestone2le/measurements_increase_load/snd.xlsx
+++ b/doc/milestone2le/measurements_increase_load/snd.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>Time</t>
   </si>
@@ -51,22 +51,7 @@
     <t>3.0</t>
   </si>
   <si>
-    <t>1333.0</t>
-  </si>
-  <si>
     <t>7.0</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>38.0</t>
-  </si>
-  <si>
-    <t>3059.0</t>
-  </si>
-  <si>
-    <t>13.0</t>
   </si>
   <si>
     <t>5.0</t>
@@ -75,40 +60,7 @@
     <t>52.0</t>
   </si>
   <si>
-    <t>889.0</t>
-  </si>
-  <si>
-    <t>19.0</t>
-  </si>
-  <si>
-    <t>59.0</t>
-  </si>
-  <si>
-    <t>2654.0</t>
-  </si>
-  <si>
-    <t>30.0</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>73.0</t>
-  </si>
-  <si>
     <t>2.0</t>
-  </si>
-  <si>
-    <t>2577.0</t>
-  </si>
-  <si>
-    <t>45.0</t>
-  </si>
-  <si>
-    <t>9.0</t>
-  </si>
-  <si>
-    <t>97.0</t>
   </si>
   <si>
     <t>3044.0</t>
@@ -212,13 +164,49 @@
   <si>
     <t>Measured Throughput</t>
   </si>
+  <si>
+    <t>08,12,2013  01:50:00</t>
+  </si>
+  <si>
+    <t>05,12,2013  05:16:00</t>
+  </si>
+  <si>
+    <t>08,12,2013  02:13:00</t>
+  </si>
+  <si>
+    <t>05,12,2013  06:40:00</t>
+  </si>
+  <si>
+    <t>05,12,2013  07:22:10</t>
+  </si>
+  <si>
+    <t>05,12,2013  07:54:00</t>
+  </si>
+  <si>
+    <t>05,12,2013  08:37:00</t>
+  </si>
+  <si>
+    <t>05,12,2013  09:19:00</t>
+  </si>
+  <si>
+    <t>05,12,2013  10:12:00</t>
+  </si>
+  <si>
+    <t>08,12,2013  01:24:00</t>
+  </si>
+  <si>
+    <t>06,12,2013  06:15:00</t>
+  </si>
+  <si>
+    <t>06,12,2013  05:27:00</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -253,7 +241,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -264,7 +252,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000000000"/>
+      <numFmt numFmtId="164" formatCode="0.0000000000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -1304,7 +1292,7 @@
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>817.02666666666664</c:v>
+                  <c:v>268.11666666666667</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>-1</c:v>
@@ -1349,7 +1337,7 @@
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>926.29666666666674</c:v>
+                  <c:v>232.52666666666667</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-1</c:v>
@@ -1394,7 +1382,7 @@
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1507.6966666666667</c:v>
+                  <c:v>412.86333333333334</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>-1</c:v>
@@ -1439,7 +1427,7 @@
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1446.0766666666668</c:v>
+                  <c:v>350.80333333333334</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>-1</c:v>
@@ -1529,7 +1517,7 @@
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1580.1699999999998</c:v>
+                  <c:v>374.35333333333335</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>-1</c:v>
@@ -1619,7 +1607,7 @@
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>1660.8100000000002</c:v>
+                  <c:v>37.18</c:v>
                 </c:pt>
                 <c:pt idx="121">
                   <c:v>-1</c:v>
@@ -1709,7 +1697,7 @@
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>1686.6966666666667</c:v>
+                  <c:v>12.383333333333333</c:v>
                 </c:pt>
                 <c:pt idx="151">
                   <c:v>-1</c:v>
@@ -1799,7 +1787,7 @@
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>1666.4333333333334</c:v>
+                  <c:v>4.5766666666666671</c:v>
                 </c:pt>
                 <c:pt idx="181">
                   <c:v>-1</c:v>
@@ -1889,7 +1877,7 @@
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>1666.7</c:v>
+                  <c:v>6.23</c:v>
                 </c:pt>
                 <c:pt idx="211">
                   <c:v>-1</c:v>
@@ -1979,7 +1967,7 @@
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>1801.6433333333334</c:v>
+                  <c:v>4.6533333333333333</c:v>
                 </c:pt>
                 <c:pt idx="241">
                   <c:v>-1</c:v>
@@ -2069,7 +2057,7 @@
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>1833.88</c:v>
+                  <c:v>0.92999999999999994</c:v>
                 </c:pt>
                 <c:pt idx="271">
                   <c:v>-1</c:v>
@@ -2159,7 +2147,7 @@
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>1849.8066666666666</c:v>
+                  <c:v>13.94</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3114,11 +3102,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="82262656"/>
-        <c:axId val="83194240"/>
+        <c:axId val="150062208"/>
+        <c:axId val="150064128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82262656"/>
+        <c:axId val="150062208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3147,7 +3135,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83194240"/>
+        <c:crossAx val="150064128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3157,7 +3145,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83194240"/>
+        <c:axId val="150064128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3188,7 +3176,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82262656"/>
+        <c:crossAx val="150062208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4193,40 +4181,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="301"/>
                 <c:pt idx="15">
-                  <c:v>10.723546355076101</c:v>
+                  <c:v>8.3706719711568294</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>20.179406165771201</c:v>
+                  <c:v>15.2024714011296</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>21.7317961835824</c:v>
+                  <c:v>17.680790253433301</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>32.095926218757398</c:v>
+                  <c:v>26.263737516747199</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>48.0152894941683</c:v>
+                  <c:v>39.158575677167697</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>60.309872893347197</c:v>
+                  <c:v>61.121301775147899</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>72.462315887662001</c:v>
+                  <c:v>72.412651413189707</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>91.650645090312594</c:v>
+                  <c:v>88.169701383830997</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>109.29578608427801</c:v>
+                  <c:v>103.212413055109</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>116.423365334981</c:v>
+                  <c:v>115.383237822349</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>129.938421997804</c:v>
+                  <c:v>127.942652329749</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>146.62511757985499</c:v>
+                  <c:v>143.117647058823</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5181,11 +5169,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="83238912"/>
-        <c:axId val="83240448"/>
+        <c:axId val="166420864"/>
+        <c:axId val="166422784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83238912"/>
+        <c:axId val="166420864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5219,7 +5207,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83240448"/>
+        <c:crossAx val="166422784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5229,7 +5217,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83240448"/>
+        <c:axId val="166422784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5260,7 +5248,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83238912"/>
+        <c:crossAx val="166420864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5286,16 +5274,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>104776</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>409576</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5316,16 +5304,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5664,8 +5652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O511"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AK30" sqref="AK30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5673,13 +5661,14 @@
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="7.140625" customWidth="1"/>
     <col min="4" max="4" width="7.140625" style="3" customWidth="1"/>
-    <col min="5" max="13" width="7.140625" customWidth="1"/>
+    <col min="5" max="12" width="7.140625" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" customWidth="1"/>
     <col min="14" max="14" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -5694,7 +5683,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -5715,13 +5704,13 @@
         <v>9</v>
       </c>
       <c r="M1" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="N1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="O1" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -5983,42 +5972,42 @@
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="1">
-        <v>41616.076770833337</v>
+      <c r="B17" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C17" s="2">
-        <v>1386507033287</v>
+        <v>1386510000000</v>
       </c>
       <c r="D17" s="3">
-        <v>209.28985391917101</v>
+        <v>162.98077200163999</v>
       </c>
       <c r="E17">
-        <v>14.4668536288707</v>
+        <v>12.766392286062599</v>
       </c>
       <c r="F17">
-        <v>10.723546355076101</v>
+        <v>8.3706719711568294</v>
       </c>
       <c r="G17">
-        <v>245108</v>
-      </c>
-      <c r="H17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" t="s">
-        <v>11</v>
-      </c>
-      <c r="J17" t="s">
-        <v>12</v>
-      </c>
-      <c r="K17" t="s">
-        <v>13</v>
-      </c>
-      <c r="L17" t="s">
-        <v>14</v>
+        <v>80435</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>1333</v>
+      </c>
+      <c r="J17">
+        <v>6</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+      <c r="L17">
+        <v>33</v>
       </c>
       <c r="M17">
         <f>IF(Tabelle1[[#This Row],[Count]]="",-1,Tabelle1[[#This Row],[Count]]/5/60)</f>
-        <v>817.02666666666664</v>
+        <v>268.11666666666667</v>
       </c>
       <c r="N17">
         <v>585.50653446137699</v>
@@ -6269,42 +6258,42 @@
       <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" s="1">
-        <v>41613.219444444447</v>
+      <c r="B32" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="C32" s="2">
         <v>1386260000000</v>
       </c>
       <c r="D32" s="3">
-        <v>1684.1742238081699</v>
+        <v>917.62782651103703</v>
       </c>
       <c r="E32">
-        <v>41.038691789677799</v>
+        <v>30.292372414702601</v>
       </c>
       <c r="F32">
-        <v>20.179406165771201</v>
+        <v>15.2024714011296</v>
       </c>
       <c r="G32">
-        <v>277889</v>
-      </c>
-      <c r="H32" t="s">
+        <v>69758</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+      <c r="I32">
+        <v>2433</v>
+      </c>
+      <c r="J32">
         <v>10</v>
       </c>
-      <c r="I32" t="s">
-        <v>15</v>
-      </c>
-      <c r="J32" t="s">
-        <v>16</v>
-      </c>
-      <c r="K32" t="s">
-        <v>17</v>
-      </c>
-      <c r="L32" t="s">
-        <v>18</v>
+      <c r="K32">
+        <v>4</v>
+      </c>
+      <c r="L32">
+        <v>47</v>
       </c>
       <c r="M32" s="4">
         <f>IF(Tabelle1[[#This Row],[Count]]="",-1,Tabelle1[[#This Row],[Count]]/5/60)</f>
-        <v>926.29666666666674</v>
+        <v>232.52666666666667</v>
       </c>
       <c r="N32">
         <v>1154.3409550492599</v>
@@ -6555,42 +6544,42 @@
       <c r="A47">
         <v>45</v>
       </c>
-      <c r="B47" s="1">
-        <v>41616.092731481483</v>
+      <c r="B47" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C47" s="2">
-        <v>1386508412664</v>
+        <v>1386510000000</v>
       </c>
       <c r="D47" s="3">
-        <v>320.26504710689699</v>
+        <v>238.084697026029</v>
       </c>
       <c r="E47">
-        <v>17.8959505784659</v>
+        <v>15.429993422747399</v>
       </c>
       <c r="F47">
-        <v>21.7317961835824</v>
+        <v>17.680790253433301</v>
       </c>
       <c r="G47">
-        <v>452309</v>
-      </c>
-      <c r="H47" t="s">
-        <v>10</v>
-      </c>
-      <c r="I47" t="s">
-        <v>19</v>
-      </c>
-      <c r="J47" t="s">
-        <v>20</v>
-      </c>
-      <c r="K47" t="s">
-        <v>17</v>
-      </c>
-      <c r="L47" t="s">
-        <v>21</v>
+        <v>123859</v>
+      </c>
+      <c r="H47">
+        <v>3</v>
+      </c>
+      <c r="I47">
+        <v>658</v>
+      </c>
+      <c r="J47">
+        <v>14</v>
+      </c>
+      <c r="K47">
+        <v>4</v>
+      </c>
+      <c r="L47">
+        <v>48</v>
       </c>
       <c r="M47" s="4">
         <f>IF(Tabelle1[[#This Row],[Count]]="",-1,Tabelle1[[#This Row],[Count]]/5/60)</f>
-        <v>1507.6966666666667</v>
+        <v>412.86333333333334</v>
       </c>
       <c r="N47">
         <v>1524.09258033681</v>
@@ -6841,42 +6830,42 @@
       <c r="A62">
         <v>60</v>
       </c>
-      <c r="B62" s="1">
-        <v>41613.277777777781</v>
+      <c r="B62" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="C62" s="2">
         <v>1386270000000</v>
       </c>
       <c r="D62" s="3">
-        <v>863.24854209884802</v>
+        <v>755.49121723190001</v>
       </c>
       <c r="E62">
-        <v>29.3810915743246</v>
+        <v>27.486200487369999</v>
       </c>
       <c r="F62">
-        <v>32.095926218757398</v>
+        <v>26.263737516747199</v>
       </c>
       <c r="G62">
-        <v>433823</v>
-      </c>
-      <c r="H62" t="s">
-        <v>10</v>
-      </c>
-      <c r="I62" t="s">
-        <v>22</v>
-      </c>
-      <c r="J62" t="s">
-        <v>23</v>
-      </c>
-      <c r="K62" t="s">
-        <v>24</v>
-      </c>
-      <c r="L62" t="s">
-        <v>25</v>
+        <v>105241</v>
+      </c>
+      <c r="H62">
+        <v>3</v>
+      </c>
+      <c r="I62">
+        <v>2654</v>
+      </c>
+      <c r="J62">
+        <v>27</v>
+      </c>
+      <c r="K62">
+        <v>6</v>
+      </c>
+      <c r="L62">
+        <v>55</v>
       </c>
       <c r="M62">
         <f>IF(Tabelle1[[#This Row],[Count]]="",-1,Tabelle1[[#This Row],[Count]]/5/60)</f>
-        <v>1446.0766666666668</v>
+        <v>350.80333333333334</v>
       </c>
       <c r="N62">
         <v>1566.65979506284</v>
@@ -7382,42 +7371,42 @@
       <c r="A92">
         <v>90</v>
       </c>
-      <c r="B92" s="1">
-        <v>41613.306944444441</v>
-      </c>
-      <c r="C92" s="2">
-        <v>1386270000000</v>
-      </c>
-      <c r="D92" s="3">
-        <v>1004.19561477005</v>
+      <c r="B92" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C92">
+        <v>1386267730988</v>
+      </c>
+      <c r="D92">
+        <v>601.26155492422697</v>
       </c>
       <c r="E92">
-        <v>31.689045658871699</v>
+        <v>24.520635287941101</v>
       </c>
       <c r="F92">
-        <v>48.0152894941683</v>
+        <v>39.158575677167697</v>
       </c>
       <c r="G92">
-        <v>474051</v>
-      </c>
-      <c r="H92" t="s">
-        <v>26</v>
-      </c>
-      <c r="I92" t="s">
-        <v>27</v>
-      </c>
-      <c r="J92" t="s">
-        <v>28</v>
-      </c>
-      <c r="K92" t="s">
-        <v>29</v>
-      </c>
-      <c r="L92" t="s">
-        <v>30</v>
+        <v>112306</v>
+      </c>
+      <c r="H92">
+        <v>3</v>
+      </c>
+      <c r="I92">
+        <v>1720</v>
+      </c>
+      <c r="J92">
+        <v>37</v>
+      </c>
+      <c r="K92">
+        <v>10</v>
+      </c>
+      <c r="L92">
+        <v>76</v>
       </c>
       <c r="M92">
         <f>IF(Tabelle1[[#This Row],[Count]]="",-1,Tabelle1[[#This Row],[Count]]/5/60)</f>
-        <v>1580.1699999999998</v>
+        <v>374.35333333333335</v>
       </c>
       <c r="N92">
         <v>1566.7830785845099</v>
@@ -7921,42 +7910,42 @@
       <c r="A122">
         <v>120</v>
       </c>
-      <c r="B122" s="1">
-        <v>41613.329756944448</v>
+      <c r="B122" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="C122" s="2">
-        <v>1386269691061</v>
+        <v>1386270000000</v>
       </c>
       <c r="D122" s="3">
-        <v>3018.41703851592</v>
+        <v>7726.5115106875401</v>
       </c>
       <c r="E122">
-        <v>54.940122301610501</v>
+        <v>87.900577419534301</v>
       </c>
       <c r="F122">
-        <v>60.309872893347197</v>
+        <v>61.121301775147899</v>
       </c>
       <c r="G122">
-        <v>498243</v>
-      </c>
-      <c r="H122" t="s">
-        <v>26</v>
-      </c>
-      <c r="I122" t="s">
-        <v>31</v>
-      </c>
-      <c r="J122" t="s">
-        <v>18</v>
-      </c>
-      <c r="K122" t="s">
-        <v>32</v>
-      </c>
-      <c r="L122" t="s">
-        <v>33</v>
+        <v>11154</v>
+      </c>
+      <c r="H122">
+        <v>3</v>
+      </c>
+      <c r="I122">
+        <v>2069</v>
+      </c>
+      <c r="J122">
+        <v>46</v>
+      </c>
+      <c r="K122">
+        <v>11</v>
+      </c>
+      <c r="L122">
+        <v>232</v>
       </c>
       <c r="M122" s="4">
         <f>IF(Tabelle1[[#This Row],[Count]]="",-1,Tabelle1[[#This Row],[Count]]/5/60)</f>
-        <v>1660.8100000000002</v>
+        <v>37.18</v>
       </c>
       <c r="N122">
         <v>1566.7837111193801</v>
@@ -8462,42 +8451,42 @@
       <c r="A152">
         <v>150</v>
       </c>
-      <c r="B152" s="1">
-        <v>41613.359027777777</v>
+      <c r="B152" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="C152" s="2">
         <v>1386270000000</v>
       </c>
       <c r="D152" s="3">
-        <v>2920.9191705872299</v>
+        <v>4017.3237494301402</v>
       </c>
       <c r="E152">
-        <v>54.045528682650797</v>
+        <v>63.382361500895101</v>
       </c>
       <c r="F152">
-        <v>72.462315887662001</v>
+        <v>72.412651413189707</v>
       </c>
       <c r="G152">
-        <v>506009</v>
-      </c>
-      <c r="H152" t="s">
-        <v>10</v>
-      </c>
-      <c r="I152" t="s">
-        <v>34</v>
-      </c>
-      <c r="J152" t="s">
-        <v>35</v>
-      </c>
-      <c r="K152" t="s">
-        <v>36</v>
-      </c>
-      <c r="L152" t="s">
-        <v>37</v>
+        <v>3715</v>
+      </c>
+      <c r="H152">
+        <v>4</v>
+      </c>
+      <c r="I152">
+        <v>918</v>
+      </c>
+      <c r="J152">
+        <v>64</v>
+      </c>
+      <c r="K152">
+        <v>33</v>
+      </c>
+      <c r="L152">
+        <v>127</v>
       </c>
       <c r="M152" s="4">
         <f>IF(Tabelle1[[#This Row],[Count]]="",-1,Tabelle1[[#This Row],[Count]]/5/60)</f>
-        <v>1686.6966666666667</v>
+        <v>12.383333333333333</v>
       </c>
       <c r="N152">
         <v>1566.7839196956099</v>
@@ -9003,42 +8992,42 @@
       <c r="A182">
         <v>180</v>
       </c>
-      <c r="B182" s="1">
-        <v>41613.388194444444</v>
+      <c r="B182" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="C182" s="2">
         <v>1386270000000</v>
       </c>
       <c r="D182" s="3">
-        <v>2675.8851299223602</v>
+        <v>3225.93255071251</v>
       </c>
       <c r="E182">
-        <v>51.728958330149702</v>
+        <v>56.797293515734601</v>
       </c>
       <c r="F182">
-        <v>91.650645090312594</v>
+        <v>88.169701383830997</v>
       </c>
       <c r="G182">
-        <v>499930</v>
-      </c>
-      <c r="H182" t="s">
-        <v>17</v>
-      </c>
-      <c r="I182" t="s">
-        <v>38</v>
-      </c>
-      <c r="J182" t="s">
-        <v>39</v>
-      </c>
-      <c r="K182" t="s">
-        <v>40</v>
-      </c>
-      <c r="L182" t="s">
-        <v>41</v>
+        <v>1373</v>
+      </c>
+      <c r="H182">
+        <v>14</v>
+      </c>
+      <c r="I182">
+        <v>912</v>
+      </c>
+      <c r="J182">
+        <v>80</v>
+      </c>
+      <c r="K182">
+        <v>51</v>
+      </c>
+      <c r="L182">
+        <v>180</v>
       </c>
       <c r="M182" s="4">
         <f>IF(Tabelle1[[#This Row],[Count]]="",-1,Tabelle1[[#This Row],[Count]]/5/60)</f>
-        <v>1666.4333333333334</v>
+        <v>4.5766666666666671</v>
       </c>
       <c r="N182">
         <v>1566.78401366965</v>
@@ -9544,42 +9533,42 @@
       <c r="A212">
         <v>210</v>
       </c>
-      <c r="B212" s="1">
-        <v>41613.425000000003</v>
+      <c r="B212" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="C212" s="2">
         <v>1386280000000</v>
       </c>
       <c r="D212" s="3">
-        <v>2709.2520703052901</v>
+        <v>2279.8579614652599</v>
       </c>
       <c r="E212">
-        <v>52.050476177507598</v>
+        <v>47.7478581872032</v>
       </c>
       <c r="F212">
-        <v>109.29578608427801</v>
+        <v>103.212413055109</v>
       </c>
       <c r="G212">
-        <v>500010</v>
-      </c>
-      <c r="H212" t="s">
-        <v>17</v>
-      </c>
-      <c r="I212" t="s">
-        <v>42</v>
-      </c>
-      <c r="J212" t="s">
-        <v>43</v>
-      </c>
-      <c r="K212" t="s">
-        <v>44</v>
-      </c>
-      <c r="L212" t="s">
-        <v>45</v>
+        <v>1869</v>
+      </c>
+      <c r="H212">
+        <v>50</v>
+      </c>
+      <c r="I212">
+        <v>962</v>
+      </c>
+      <c r="J212">
+        <v>98</v>
+      </c>
+      <c r="K212">
+        <v>71</v>
+      </c>
+      <c r="L212">
+        <v>151</v>
       </c>
       <c r="M212" s="4">
         <f>IF(Tabelle1[[#This Row],[Count]]="",-1,Tabelle1[[#This Row],[Count]]/5/60)</f>
-        <v>1666.7</v>
+        <v>6.23</v>
       </c>
       <c r="N212">
         <v>1566.78406393707</v>
@@ -10085,42 +10074,42 @@
       <c r="A242">
         <v>240</v>
       </c>
-      <c r="B242" s="1">
-        <v>41616.058333333334</v>
+      <c r="B242" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="C242" s="2">
         <v>1386510000000</v>
       </c>
       <c r="D242" s="3">
-        <v>2742.38047002334</v>
+        <v>2963.3662851362301</v>
       </c>
       <c r="E242">
-        <v>52.367742647772602</v>
+        <v>54.436810019840699</v>
       </c>
       <c r="F242">
-        <v>116.423365334981</v>
+        <v>115.383237822349</v>
       </c>
       <c r="G242">
-        <v>540493</v>
-      </c>
-      <c r="H242" t="s">
-        <v>46</v>
-      </c>
-      <c r="I242" t="s">
-        <v>47</v>
-      </c>
-      <c r="J242" t="s">
-        <v>48</v>
-      </c>
-      <c r="K242" t="s">
-        <v>49</v>
-      </c>
-      <c r="L242" t="s">
-        <v>50</v>
+        <v>1396</v>
+      </c>
+      <c r="H242">
+        <v>53</v>
+      </c>
+      <c r="I242">
+        <v>949</v>
+      </c>
+      <c r="J242">
+        <v>105</v>
+      </c>
+      <c r="K242">
+        <v>79</v>
+      </c>
+      <c r="L242">
+        <v>217</v>
       </c>
       <c r="M242" s="4">
         <f>IF(Tabelle1[[#This Row],[Count]]="",-1,Tabelle1[[#This Row],[Count]]/5/60)</f>
-        <v>1801.6433333333334</v>
+        <v>4.6533333333333333</v>
       </c>
       <c r="N242">
         <v>1566.78409394596</v>
@@ -10626,42 +10615,42 @@
       <c r="A272">
         <v>270</v>
       </c>
-      <c r="B272" s="1">
-        <v>41614.260416666664</v>
+      <c r="B272" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C272" s="2">
         <v>1386350000000</v>
       </c>
       <c r="D272" s="3">
-        <v>2406.2829958765701</v>
+        <v>1330.46432531394</v>
       </c>
       <c r="E272">
-        <v>49.053878499834902</v>
+        <v>36.475530500788302</v>
       </c>
       <c r="F272">
-        <v>129.938421997804</v>
+        <v>127.942652329749</v>
       </c>
       <c r="G272">
-        <v>550164</v>
-      </c>
-      <c r="H272" t="s">
-        <v>51</v>
-      </c>
-      <c r="I272" t="s">
-        <v>52</v>
-      </c>
-      <c r="J272" t="s">
-        <v>53</v>
-      </c>
-      <c r="K272" t="s">
-        <v>54</v>
-      </c>
-      <c r="L272" t="s">
-        <v>55</v>
+        <v>279</v>
+      </c>
+      <c r="H272">
+        <v>87</v>
+      </c>
+      <c r="I272">
+        <v>608</v>
+      </c>
+      <c r="J272">
+        <v>124</v>
+      </c>
+      <c r="K272">
+        <v>103</v>
+      </c>
+      <c r="L272">
+        <v>168</v>
       </c>
       <c r="M272" s="4">
         <f>IF(Tabelle1[[#This Row],[Count]]="",-1,Tabelle1[[#This Row],[Count]]/5/60)</f>
-        <v>1833.88</v>
+        <v>0.92999999999999994</v>
       </c>
       <c r="N272">
         <v>1566.7841132873</v>
@@ -11167,42 +11156,42 @@
       <c r="A302">
         <v>300</v>
       </c>
-      <c r="B302" s="1">
-        <v>41614.227083333331</v>
+      <c r="B302" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="C302" s="2">
         <v>1386350000000</v>
       </c>
       <c r="D302" s="3">
-        <v>2157.3325023940802</v>
+        <v>3351.5685524149799</v>
       </c>
       <c r="E302">
-        <v>46.447093583927099</v>
+        <v>57.8927331572364</v>
       </c>
       <c r="F302">
-        <v>146.62511757985499</v>
+        <v>143.117647058823</v>
       </c>
       <c r="G302">
-        <v>554942</v>
-      </c>
-      <c r="H302" t="s">
-        <v>12</v>
-      </c>
-      <c r="I302" t="s">
-        <v>56</v>
-      </c>
-      <c r="J302" t="s">
-        <v>57</v>
-      </c>
-      <c r="K302" t="s">
-        <v>58</v>
-      </c>
-      <c r="L302" t="s">
-        <v>59</v>
+        <v>4182</v>
+      </c>
+      <c r="H302">
+        <v>47</v>
+      </c>
+      <c r="I302">
+        <v>995</v>
+      </c>
+      <c r="J302">
+        <v>135</v>
+      </c>
+      <c r="K302">
+        <v>108</v>
+      </c>
+      <c r="L302">
+        <v>201</v>
       </c>
       <c r="M302" s="4">
         <f>IF(Tabelle1[[#This Row],[Count]]="",-1,Tabelle1[[#This Row],[Count]]/5/60)</f>
-        <v>1849.8066666666666</v>
+        <v>13.94</v>
       </c>
       <c r="N302">
         <v>1566.7841264793301</v>
@@ -11255,19 +11244,19 @@
         <v>498243</v>
       </c>
       <c r="H1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="L1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="M1" s="4" t="e">
         <f>IF(Tabelle1[[#This Row],[Count]]="",-1,Tabelle1[[#This Row],[Count]]/5/60)</f>
@@ -11312,16 +11301,16 @@
         <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="K3" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="M3" s="4">
         <f>IF(Tabelle1[[#This Row],[Count]]="",-1,Tabelle1[[#This Row],[Count]]/5/60)</f>
@@ -11363,19 +11352,19 @@
         <v>499930</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="K5" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="L5" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="M5" s="4">
         <f>IF(Tabelle1[[#This Row],[Count]]="",-1,Tabelle1[[#This Row],[Count]]/5/60)</f>
@@ -11417,19 +11406,19 @@
         <v>500010</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="K7" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="L7" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="M7" s="4">
         <f>IF(Tabelle1[[#This Row],[Count]]="",-1,Tabelle1[[#This Row],[Count]]/5/60)</f>
@@ -11471,19 +11460,19 @@
         <v>540493</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="I9" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="J9" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="K9" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="L9" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="M9" s="4">
         <f>IF(Tabelle1[[#This Row],[Count]]="",-1,Tabelle1[[#This Row],[Count]]/5/60)</f>
@@ -11525,19 +11514,19 @@
         <v>550164</v>
       </c>
       <c r="H11" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="I11" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="J11" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="K11" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L11" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="M11" s="4">
         <f>IF(Tabelle1[[#This Row],[Count]]="",-1,Tabelle1[[#This Row],[Count]]/5/60)</f>
@@ -11579,19 +11568,19 @@
         <v>554942</v>
       </c>
       <c r="H13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I13" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="J13" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="K13" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="L13" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="M13" s="4">
         <f>IF(Tabelle1[[#This Row],[Count]]="",-1,Tabelle1[[#This Row],[Count]]/5/60)</f>

--- a/doc/milestone2le/measurements_increase_load/snd.xlsx
+++ b/doc/milestone2le/measurements_increase_load/snd.xlsx
@@ -295,7 +295,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Mean Value Analysis - Throughput</a:t>
+              <a:t>Mean Value Analysis -</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Send Message </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>- Throughput</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3102,11 +3110,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="150062208"/>
-        <c:axId val="150064128"/>
+        <c:axId val="173642112"/>
+        <c:axId val="173644032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="150062208"/>
+        <c:axId val="173642112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3135,7 +3143,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150064128"/>
+        <c:crossAx val="173644032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3145,7 +3153,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="150064128"/>
+        <c:axId val="173644032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3176,7 +3184,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150062208"/>
+        <c:crossAx val="173642112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3225,7 +3233,7 @@
               <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Mean Value Analysis - </a:t>
+              <a:t>Mean Value Analysis - Send Message - </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -5169,11 +5177,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="166420864"/>
-        <c:axId val="166422784"/>
+        <c:axId val="173669760"/>
+        <c:axId val="186717696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="166420864"/>
+        <c:axId val="173669760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5207,7 +5215,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166422784"/>
+        <c:crossAx val="186717696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5217,7 +5225,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="166422784"/>
+        <c:axId val="186717696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5248,7 +5256,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166420864"/>
+        <c:crossAx val="173669760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5652,8 +5660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O511"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AK30" sqref="AK30"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
